--- a/database/files/prof/business-upload/manual_mapping_upload_template.xlsx
+++ b/database/files/prof/business-upload/manual_mapping_upload_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dakahle\work\fin-dfa\database\files\business-upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dakahle\work\fin-dfa\database\files\prof\business-upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -458,21 +458,21 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F3" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.08984375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="27.26953125" customWidth="1"/>
-    <col min="6" max="6" width="26.81640625" customWidth="1"/>
-    <col min="7" max="7" width="21.6328125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -481,9 +481,8 @@
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -492,21 +491,18 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="12"/>
       <c r="D4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -529,7 +525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
@@ -538,7 +534,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
@@ -555,7 +551,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/database/files/prof/business-upload/manual_mapping_upload_template.xlsx
+++ b/database/files/prof/business-upload/manual_mapping_upload_template.xlsx
@@ -134,14 +134,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -458,90 +456,86 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F1:F1048576"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D3"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="D4"/>
+      <c r="B4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
